--- a/currentbuild/ValueSet-vkp-subject-identifiers.valueset.xlsx
+++ b/currentbuild/ValueSet-vkp-subject-identifiers.valueset.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
   <si>
     <t>Property</t>
   </si>
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://hl7.no/fhir/ValueSet/vkp-subject-identifiers.valueset</t>
+    <t>http://ehelse.no/fhir/ValueSet/vkp-subject-identifiers.valueset</t>
   </si>
   <si>
     <t>Version</t>
@@ -36,7 +36,7 @@
     <t>Name</t>
   </si>
   <si>
-    <t>VkpSubjectIdentifierSystemsValueSet</t>
+    <t>VkpSubjectIdentifiersValueSet</t>
   </si>
   <si>
     <t>Title</t>
@@ -66,6 +66,9 @@
     <t>Publisher</t>
   </si>
   <si>
+    <t>Direktoratet for e-helse</t>
+  </si>
+  <si>
     <t>Contact</t>
   </si>
   <si>
@@ -108,7 +111,7 @@
     <t>System URI</t>
   </si>
   <si>
-    <t>http://hl7.no/fhir/CodeSystem/vkp-subject-identifiers.codesystem</t>
+    <t>http://ehelse.no/fhir/CodeSystem/vkp-subject-identifiers.codesystem</t>
   </si>
 </sst>
 </file>
@@ -320,50 +323,52 @@
       <c r="A9" t="s" s="2">
         <v>16</v>
       </c>
-      <c r="B9" s="2"/>
+      <c r="B9" t="s" s="2">
+        <v>17</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -385,28 +390,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/currentbuild/ValueSet-vkp-subject-identifiers.valueset.xlsx
+++ b/currentbuild/ValueSet-vkp-subject-identifiers.valueset.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/ValueSet-vkp-subject-identifiers.valueset.xlsx
+++ b/currentbuild/ValueSet-vkp-subject-identifiers.valueset.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.0</t>
+    <t>0.2.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/ValueSet-vkp-subject-identifiers.valueset.xlsx
+++ b/currentbuild/ValueSet-vkp-subject-identifiers.valueset.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.1</t>
+    <t>0.2.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/ValueSet-vkp-subject-identifiers.valueset.xlsx
+++ b/currentbuild/ValueSet-vkp-subject-identifiers.valueset.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.2</t>
+    <t>0.2.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/ValueSet-vkp-subject-identifiers.valueset.xlsx
+++ b/currentbuild/ValueSet-vkp-subject-identifiers.valueset.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.2</t>
+    <t>0.1.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/ValueSet-vkp-subject-identifiers.valueset.xlsx
+++ b/currentbuild/ValueSet-vkp-subject-identifiers.valueset.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.2.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/ValueSet-vkp-subject-identifiers.valueset.xlsx
+++ b/currentbuild/ValueSet-vkp-subject-identifiers.valueset.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.2</t>
+    <t>0.3.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/ValueSet-vkp-subject-identifiers.valueset.xlsx
+++ b/currentbuild/ValueSet-vkp-subject-identifiers.valueset.xlsx
@@ -7,13 +7,13 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from Vkp Subject Iden" r:id="rId4" sheetId="2"/>
+    <sheet name="Include #0" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.0</t>
+    <t>0.2.3</t>
   </si>
   <si>
     <t>Name</t>
@@ -66,13 +66,10 @@
     <t>Publisher</t>
   </si>
   <si>
-    <t>Direktoratet for e-helse</t>
-  </si>
-  <si>
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>null (http://ehelse.no/)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -233,10 +230,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -323,52 +320,50 @@
       <c r="A9" t="s" s="2">
         <v>16</v>
       </c>
-      <c r="B9" t="s" s="2">
-        <v>17</v>
-      </c>
+      <c r="B9" s="2"/>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s" s="2">
         <v>18</v>
-      </c>
-      <c r="B10" t="s" s="2">
-        <v>19</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s" s="2">
         <v>20</v>
-      </c>
-      <c r="B11" t="s" s="2">
-        <v>21</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s" s="2">
         <v>22</v>
-      </c>
-      <c r="B12" t="s" s="2">
-        <v>23</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="B15" t="s" s="2">
         <v>26</v>
-      </c>
-      <c r="B15" t="s" s="2">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -390,28 +385,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="B4" t="s" s="2">
         <v>31</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/currentbuild/ValueSet-vkp-subject-identifiers.valueset.xlsx
+++ b/currentbuild/ValueSet-vkp-subject-identifiers.valueset.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
   <si>
     <t>Property</t>
   </si>
@@ -24,13 +24,13 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://ehelse.no/fhir/ValueSet/vkp-subject-identifiers.valueset</t>
+    <t>http://hl7.no/fhir/vkpobservation/ValueSet/vkp-subject-identifiers.valueset</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.3</t>
+    <t>0.3.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -66,10 +66,13 @@
     <t>Publisher</t>
   </si>
   <si>
+    <t>HL7 Norway</t>
+  </si>
+  <si>
     <t>Contact</t>
   </si>
   <si>
-    <t>null (http://ehelse.no/)</t>
+    <t>HL7 Norway (http://www.hl7.no)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -108,7 +111,7 @@
     <t>System URI</t>
   </si>
   <si>
-    <t>http://ehelse.no/fhir/CodeSystem/vkp-subject-identifiers.codesystem</t>
+    <t>http://hl7.no/fhir/vkpobservation/CodeSystem/vkp-subject-identifiers.codesystem</t>
   </si>
 </sst>
 </file>
@@ -320,50 +323,52 @@
       <c r="A9" t="s" s="2">
         <v>16</v>
       </c>
-      <c r="B9" s="2"/>
+      <c r="B9" t="s" s="2">
+        <v>17</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -385,28 +390,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/currentbuild/ValueSet-vkp-subject-identifiers.valueset.xlsx
+++ b/currentbuild/ValueSet-vkp-subject-identifiers.valueset.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.1</t>
+    <t>0.3.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/ValueSet-vkp-subject-identifiers.valueset.xlsx
+++ b/currentbuild/ValueSet-vkp-subject-identifiers.valueset.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.2</t>
+    <t>0.3.3</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/ValueSet-vkp-subject-identifiers.valueset.xlsx
+++ b/currentbuild/ValueSet-vkp-subject-identifiers.valueset.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.3</t>
+    <t>0.3.4</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/ValueSet-vkp-subject-identifiers.valueset.xlsx
+++ b/currentbuild/ValueSet-vkp-subject-identifiers.valueset.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.4</t>
+    <t>0.3.6</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/ValueSet-vkp-subject-identifiers.valueset.xlsx
+++ b/currentbuild/ValueSet-vkp-subject-identifiers.valueset.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.6</t>
+    <t>0.3.7</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/ValueSet-vkp-subject-identifiers.valueset.xlsx
+++ b/currentbuild/ValueSet-vkp-subject-identifiers.valueset.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.7</t>
+    <t>0.3.8</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/ValueSet-vkp-subject-identifiers.valueset.xlsx
+++ b/currentbuild/ValueSet-vkp-subject-identifiers.valueset.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.8</t>
+    <t>0.3.9</t>
   </si>
   <si>
     <t>Name</t>
